--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prashanth.venkatesan\Documents\Efile\RE_Efile_Dispatcher\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996F891A-9EC3-4843-A14B-745A91FA9482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372206CD-D132-4126-97BB-A23BB0E64F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,10 +165,10 @@
     <t>Sheet1</t>
   </si>
   <si>
-    <t>C:\Users\prashanth.venkatesan\Documents\Efile\Deatil for JSONs automation.xlsx</t>
-  </si>
-  <si>
     <t>EFileQueue</t>
+  </si>
+  <si>
+    <t>C:\IACE\ExcelData\DetailsForAutomationJSON.xlsx</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -544,7 +544,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -575,7 +575,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
@@ -1579,7 +1579,7 @@
     <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2750,7 +2750,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
